--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H2">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I2">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J2">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N2">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O2">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P2">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q2">
-        <v>1.644283498887</v>
+        <v>12.003061344725</v>
       </c>
       <c r="R2">
-        <v>9.865700993322001</v>
+        <v>48.0122453789</v>
       </c>
       <c r="S2">
-        <v>0.08972675848310785</v>
+        <v>0.118453250043895</v>
       </c>
       <c r="T2">
-        <v>0.06656456073482866</v>
+        <v>0.07432680314548572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H3">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I3">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J3">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
         <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P3">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q3">
-        <v>2.490270780259334</v>
+        <v>14.72855197238233</v>
       </c>
       <c r="R3">
-        <v>22.412437022334</v>
+        <v>88.37131183429399</v>
       </c>
       <c r="S3">
-        <v>0.1358913624135478</v>
+        <v>0.1453499902619283</v>
       </c>
       <c r="T3">
-        <v>0.1512182485966795</v>
+        <v>0.1368058720557674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H4">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I4">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J4">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N4">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O4">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P4">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q4">
-        <v>2.232965239152</v>
+        <v>7.542744111718999</v>
       </c>
       <c r="R4">
-        <v>20.096687152368</v>
+        <v>45.256464670314</v>
       </c>
       <c r="S4">
-        <v>0.1218504794642689</v>
+        <v>0.07443622327859035</v>
       </c>
       <c r="T4">
-        <v>0.1355937255171371</v>
+        <v>0.0700606337834251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H5">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I5">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J5">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N5">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O5">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P5">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q5">
-        <v>2.033929086092</v>
+        <v>9.538930736927499</v>
       </c>
       <c r="R5">
-        <v>12.203574516552</v>
+        <v>38.15572294771</v>
       </c>
       <c r="S5">
-        <v>0.1109892935148204</v>
+        <v>0.09413576380905814</v>
       </c>
       <c r="T5">
-        <v>0.08233835361915877</v>
+        <v>0.0590681166029046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H6">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I6">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J6">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N6">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O6">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P6">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q6">
-        <v>1.23206652482</v>
+        <v>5.294239256607667</v>
       </c>
       <c r="R6">
-        <v>11.08859872338</v>
+        <v>31.76543553964601</v>
       </c>
       <c r="S6">
-        <v>0.06723252747015702</v>
+        <v>0.0522466584519085</v>
       </c>
       <c r="T6">
-        <v>0.07481553552922288</v>
+        <v>0.04917543963114639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H7">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I7">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J7">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N7">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O7">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P7">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q7">
-        <v>2.463155136381333</v>
+        <v>9.504816640205668</v>
       </c>
       <c r="R7">
-        <v>22.168396227432</v>
+        <v>57.02889984123401</v>
       </c>
       <c r="S7">
-        <v>0.1344116912795845</v>
+        <v>0.09379910589213526</v>
       </c>
       <c r="T7">
-        <v>0.1495716886284597</v>
+        <v>0.08828530677229775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H8">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I8">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J8">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.4154945</v>
+        <v>16.558025</v>
       </c>
       <c r="N8">
-        <v>26.830989</v>
+        <v>33.11605</v>
       </c>
       <c r="O8">
-        <v>0.1359286037219744</v>
+        <v>0.2047872600336892</v>
       </c>
       <c r="P8">
-        <v>0.100839793513272</v>
+        <v>0.155585835247525</v>
       </c>
       <c r="Q8">
-        <v>0.8466697452210001</v>
+        <v>8.74836627665</v>
       </c>
       <c r="R8">
-        <v>5.080018471326</v>
+        <v>52.4901976599</v>
       </c>
       <c r="S8">
-        <v>0.04620184523886652</v>
+        <v>0.08633400998979421</v>
       </c>
       <c r="T8">
-        <v>0.03427523277844331</v>
+        <v>0.08125903210203926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H9">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I9">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J9">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.31779433333334</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
         <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.2058641531581444</v>
+        <v>0.2512875437409564</v>
       </c>
       <c r="P9">
-        <v>0.2290831156337689</v>
+        <v>0.2863712008291233</v>
       </c>
       <c r="Q9">
-        <v>1.282283090769111</v>
+        <v>10.73482536483933</v>
       </c>
       <c r="R9">
-        <v>11.540547816922</v>
+        <v>96.61342828355399</v>
       </c>
       <c r="S9">
-        <v>0.06997279074459656</v>
+        <v>0.1059375534790281</v>
       </c>
       <c r="T9">
-        <v>0.07786486703708945</v>
+        <v>0.149565328773356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H10">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I10">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J10">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.218472</v>
+        <v>10.405091</v>
       </c>
       <c r="N10">
-        <v>54.655416</v>
+        <v>31.215273</v>
       </c>
       <c r="O10">
-        <v>0.1845933790146823</v>
+        <v>0.1286886616182304</v>
       </c>
       <c r="P10">
-        <v>0.2054132579243344</v>
+        <v>0.1466556042216543</v>
       </c>
       <c r="Q10">
-        <v>1.149792059216</v>
+        <v>5.497488209485999</v>
       </c>
       <c r="R10">
-        <v>10.348128532944</v>
+        <v>49.47739388537399</v>
       </c>
       <c r="S10">
-        <v>0.06274289955041336</v>
+        <v>0.05425243833964</v>
       </c>
       <c r="T10">
-        <v>0.06981953240719732</v>
+        <v>0.07659497043822917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H11">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I11">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J11">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.594562</v>
+        <v>13.1587975</v>
       </c>
       <c r="N11">
-        <v>33.189124</v>
+        <v>26.317595</v>
       </c>
       <c r="O11">
-        <v>0.1681395823342728</v>
+        <v>0.1627461056112162</v>
       </c>
       <c r="P11">
-        <v>0.1247357826074312</v>
+        <v>0.1236453320906656</v>
       </c>
       <c r="Q11">
-        <v>1.047304933902667</v>
+        <v>6.952398023934999</v>
       </c>
       <c r="R11">
-        <v>6.283829603416</v>
+        <v>41.71438814360999</v>
       </c>
       <c r="S11">
-        <v>0.05715028881945241</v>
+        <v>0.0686103418021581</v>
       </c>
       <c r="T11">
-        <v>0.04239742898827246</v>
+        <v>0.06457721548776101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H12">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I12">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J12">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.05227</v>
+        <v>7.303315666666667</v>
       </c>
       <c r="N12">
-        <v>30.15681</v>
+        <v>21.909947</v>
       </c>
       <c r="O12">
-        <v>0.1018517077649498</v>
+        <v>0.09032635260170116</v>
       </c>
       <c r="P12">
-        <v>0.1133393365939278</v>
+        <v>0.1029373190408882</v>
       </c>
       <c r="Q12">
-        <v>0.6344121627266667</v>
+        <v>3.858677619220667</v>
       </c>
       <c r="R12">
-        <v>5.70970946454</v>
+        <v>34.72809857298601</v>
       </c>
       <c r="S12">
-        <v>0.03461918029479277</v>
+        <v>0.03807969414979265</v>
       </c>
       <c r="T12">
-        <v>0.03852380106470496</v>
+        <v>0.05376187940974177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H13">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I13">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J13">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.09656133333333</v>
+        <v>13.11173766666667</v>
       </c>
       <c r="N13">
-        <v>60.28968399999999</v>
+        <v>39.335213</v>
       </c>
       <c r="O13">
-        <v>0.2036225740059764</v>
+        <v>0.1621640763942067</v>
       </c>
       <c r="P13">
-        <v>0.2265887137272657</v>
+        <v>0.1848047085701436</v>
       </c>
       <c r="Q13">
-        <v>1.268320781161778</v>
+        <v>6.927534149232668</v>
       </c>
       <c r="R13">
-        <v>11.414887030456</v>
+        <v>62.347807343094</v>
       </c>
       <c r="S13">
-        <v>0.06921088272639189</v>
+        <v>0.06836497050207142</v>
       </c>
       <c r="T13">
-        <v>0.07701702509880605</v>
+        <v>0.09651940179784584</v>
       </c>
     </row>
   </sheetData>
